--- a/Excel_Files/7bus_positive_sequence_Ybus_matrix.xlsx
+++ b/Excel_Files/7bus_positive_sequence_Ybus_matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">Bus</t>
   </si>
@@ -67,16 +67,19 @@
     <t xml:space="preserve">-25.94 + j80.34</t>
   </si>
   <si>
-    <t xml:space="preserve">23.34 - j72.23</t>
+    <t xml:space="preserve">24.64 - j72.82</t>
   </si>
   <si>
     <t xml:space="preserve">-12.97 + j40.17</t>
   </si>
   <si>
-    <t xml:space="preserve">46.32 - j143.35</t>
+    <t xml:space="preserve">47.47 - j144.16</t>
   </si>
   <si>
     <t xml:space="preserve">-7.41 + j22.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.48 - j144.11</t>
   </si>
   <si>
     <t xml:space="preserve">40.49 - j139.44</t>
@@ -185,7 +188,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +315,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
@@ -332,10 +335,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,10 +349,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
